--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="drag_kg" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="drag_min_menu" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="drag_min_defaults" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t xml:space="preserve">drag</t>
   </si>
@@ -77,6 +79,84 @@
   </si>
   <si>
     <t xml:space="preserve">КПцп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text_if_filled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drag_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">препарат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">препарат: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">концентрация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">концентрация: {} мг/мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дозировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дозировка: {} мкг/кг/мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объем шприца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">объем: {} мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc_limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">норадреналин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 мг/мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3 мг/кг/мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 - 1</t>
   </si>
 </sst>
 </file>
@@ -86,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,6 +194,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +279,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,11 +305,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -388,4 +477,186 @@
     <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="drag_kg" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t xml:space="preserve">drag</t>
   </si>
   <si>
-    <t xml:space="preserve">dose_per_kg</t>
+    <t xml:space="preserve">dose</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
@@ -39,6 +39,12 @@
     <t xml:space="preserve">flask_unit</t>
   </si>
   <si>
+    <t xml:space="preserve">concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_limit</t>
+  </si>
+  <si>
     <t xml:space="preserve">инфузия</t>
   </si>
   <si>
@@ -81,6 +87,15 @@
     <t xml:space="preserve">КПцп</t>
   </si>
   <si>
+    <t xml:space="preserve">норадреналин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -142,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">dosage_limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">норадреналин</t>
   </si>
   <si>
     <t xml:space="preserve">2 мг/мл</t>
@@ -166,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,11 +206,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +289,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,13 +310,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -331,141 +338,161 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>250</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>250</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>600</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.09</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>4.8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>300</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -487,10 +514,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
@@ -498,87 +525,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -586,8 +613,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -599,11 +626,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
@@ -612,42 +639,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +682,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="drag_kg" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="drag_min_menu" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="drag_min_defaults" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="per_kg_count" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="per_min_count" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="drag_min_menu" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">drag</t>
   </si>
@@ -39,61 +39,64 @@
     <t xml:space="preserve">flask_unit</t>
   </si>
   <si>
+    <t xml:space="preserve">инфузия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">транексам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тран. max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПК 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПК 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОАГИЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЗП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПцп</t>
+  </si>
+  <si>
     <t xml:space="preserve">concentration</t>
   </si>
   <si>
     <t xml:space="preserve">d_limit</t>
   </si>
   <si>
-    <t xml:space="preserve">инфузия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">фл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">транексам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тран. max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПК 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ед</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПК 600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОАГИЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЗП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПцп</t>
+    <t xml:space="preserve">drag_id</t>
   </si>
   <si>
     <t xml:space="preserve">норадреналин</t>
   </si>
   <si>
-    <t xml:space="preserve">0,03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 1</t>
+    <t xml:space="preserve">0.1 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_na</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -111,18 +114,12 @@
     <t xml:space="preserve">limits</t>
   </si>
   <si>
-    <t xml:space="preserve">drag_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">препарат</t>
   </si>
   <si>
     <t xml:space="preserve">препарат: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">d_na</t>
-  </si>
-  <si>
     <t xml:space="preserve">conc</t>
   </si>
   <si>
@@ -151,24 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">20 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 мг/мл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3 мг/кг/мин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 - 1</t>
   </si>
 </sst>
 </file>
@@ -310,13 +289,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -338,161 +317,141 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>250</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>250</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>500</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>600</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.09</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>4.8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>300</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -511,101 +470,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -624,57 +533,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>48</v>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="drag_kg" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="drag_min_menu" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="drag_min_defaults" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="per_kg_count" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="per_min_count" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="drag_min_menu" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">drag</t>
   </si>
   <si>
-    <t xml:space="preserve">dose_per_kg</t>
+    <t xml:space="preserve">dose</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
@@ -81,6 +81,24 @@
     <t xml:space="preserve">КПцп</t>
   </si>
   <si>
+    <t xml:space="preserve">concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drag_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">норадреналин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_na</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -96,18 +114,12 @@
     <t xml:space="preserve">limits</t>
   </si>
   <si>
-    <t xml:space="preserve">drag_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">препарат</t>
   </si>
   <si>
     <t xml:space="preserve">препарат: {}</t>
   </si>
   <si>
-    <t xml:space="preserve">d_na</t>
-  </si>
-  <si>
     <t xml:space="preserve">conc</t>
   </si>
   <si>
@@ -136,27 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">20 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">норадреналин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 мг/мл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3 мг/кг/мин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 - 1</t>
   </si>
 </sst>
 </file>
@@ -166,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,11 +185,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +268,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,11 +291,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -434,7 +420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -451,7 +437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -484,101 +470,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -586,8 +522,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -597,57 +533,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>39</v>
+      <c r="E1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +635,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="per_kg_count" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="per_min_count" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="per_hour_count" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="drag_min_menu" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t xml:space="preserve">drag</t>
   </si>
@@ -81,22 +81,19 @@
     <t xml:space="preserve">КПцп</t>
   </si>
   <si>
+    <t xml:space="preserve">drag_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">d_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drag_id</t>
+    <t xml:space="preserve">d_na</t>
   </si>
   <si>
     <t xml:space="preserve">норадреналин</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1 - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_na</t>
+    <t xml:space="preserve">mkg</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -291,11 +288,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -472,49 +469,51 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C2" s="0" t="n">
         <v>0.3</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>24</v>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -522,8 +521,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -539,7 +538,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
@@ -547,87 +546,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -635,8 +634,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="per_kg_count" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="drag_count" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="per_hour_count" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="drag_min_menu" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -289,10 +289,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -470,10 +470,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
@@ -538,7 +538,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>

--- a/oac/program_logic/data/drag_dosage.xlsx
+++ b/oac/program_logic/data/drag_dosage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="drag_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t xml:space="preserve">drag</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">амп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тран. max</t>
   </si>
   <si>
     <t xml:space="preserve">КПК 500</t>
@@ -288,11 +285,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
@@ -351,7 +348,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>40</v>
@@ -368,13 +365,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>500</v>
@@ -385,13 +382,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>600</v>
@@ -402,7 +399,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.09</v>
@@ -419,7 +416,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>15</v>
@@ -431,12 +428,12 @@
         <v>300</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>3</v>
@@ -448,7 +445,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -469,11 +466,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
@@ -484,7 +481,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -496,21 +493,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
@@ -538,7 +535,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.6"/>
@@ -546,87 +543,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
